--- a/riskmanagement_project/STOCK_RESULTS/AAPL_historical_data.xlsx
+++ b/riskmanagement_project/STOCK_RESULTS/AAPL_historical_data.xlsx
@@ -481,7 +481,7 @@
         <v>188.0487487265468</v>
       </c>
       <c r="D2" t="n">
-        <v>188.446792602539</v>
+        <v>188.4467926025391</v>
       </c>
       <c r="E2" t="n">
         <v>43014200</v>
@@ -495,16 +495,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>188.9144919613814</v>
+        <v>188.9145072113341</v>
       </c>
       <c r="B3" t="n">
-        <v>189.392162807185</v>
+        <v>189.3921780956972</v>
       </c>
       <c r="C3" t="n">
-        <v>187.2725420840809</v>
+        <v>187.2725572014887</v>
       </c>
       <c r="D3" t="n">
-        <v>189.0239562988281</v>
+        <v>189.0239715576172</v>
       </c>
       <c r="E3" t="n">
         <v>48794400</v>
@@ -518,16 +518,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>189.4021109818295</v>
+        <v>189.4020957956484</v>
       </c>
       <c r="B4" t="n">
-        <v>190.6261102728152</v>
+        <v>190.6260949884944</v>
       </c>
       <c r="C4" t="n">
-        <v>188.3074675935333</v>
+        <v>188.3074524951203</v>
       </c>
       <c r="D4" t="n">
-        <v>190.3076782226562</v>
+        <v>190.3076629638672</v>
       </c>
       <c r="E4" t="n">
         <v>45679300</v>
@@ -541,16 +541,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>189.0538066663249</v>
+        <v>189.0538219694173</v>
       </c>
       <c r="B5" t="n">
-        <v>189.1234726913577</v>
+        <v>189.1234880000893</v>
       </c>
       <c r="C5" t="n">
-        <v>186.5361421182469</v>
+        <v>186.5361572175453</v>
       </c>
       <c r="D5" t="n">
-        <v>188.5064849853516</v>
+        <v>188.5065002441406</v>
       </c>
       <c r="E5" t="n">
         <v>43389500</v>
@@ -590,7 +590,7 @@
         <v>193.5020213470321</v>
       </c>
       <c r="B7" t="n">
-        <v>193.810507616726</v>
+        <v>193.8105076167259</v>
       </c>
       <c r="C7" t="n">
         <v>191.1734328747628</v>
@@ -619,7 +619,7 @@
         <v>192.6462137085378</v>
       </c>
       <c r="D8" t="n">
-        <v>193.3229064941407</v>
+        <v>193.3229064941406</v>
       </c>
       <c r="E8" t="n">
         <v>47477700</v>
@@ -659,13 +659,13 @@
         <v>192.1685693679781</v>
       </c>
       <c r="B10" t="n">
-        <v>192.5467216876514</v>
+        <v>192.5467216876515</v>
       </c>
       <c r="C10" t="n">
-        <v>190.4868058634109</v>
+        <v>190.486805863411</v>
       </c>
       <c r="D10" t="n">
-        <v>192.2382202148437</v>
+        <v>192.2382202148438</v>
       </c>
       <c r="E10" t="n">
         <v>60943700</v>
@@ -679,16 +679,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>192.1387294173702</v>
+        <v>192.1387142863194</v>
       </c>
       <c r="B11" t="n">
-        <v>193.770733747099</v>
+        <v>193.7707184875267</v>
       </c>
       <c r="C11" t="n">
-        <v>190.7853588621512</v>
+        <v>190.7853438376791</v>
       </c>
       <c r="D11" t="n">
-        <v>193.7607879638672</v>
+        <v>193.7607727050781</v>
       </c>
       <c r="E11" t="n">
         <v>52696900</v>
@@ -702,16 +702,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>194.13890022422</v>
+        <v>194.1388851866518</v>
       </c>
       <c r="B12" t="n">
-        <v>197.0347171354669</v>
+        <v>197.0347018735952</v>
       </c>
       <c r="C12" t="n">
-        <v>193.9000799820717</v>
+        <v>193.900064963002</v>
       </c>
       <c r="D12" t="n">
-        <v>196.9949188232422</v>
+        <v>196.9949035644531</v>
       </c>
       <c r="E12" t="n">
         <v>70404200</v>
@@ -725,16 +725,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>197.0546379594379</v>
+        <v>197.0546227075805</v>
       </c>
       <c r="B13" t="n">
-        <v>198.6468286969565</v>
+        <v>198.646813321865</v>
       </c>
       <c r="C13" t="n">
-        <v>195.2037050285768</v>
+        <v>195.20368991998</v>
       </c>
       <c r="D13" t="n">
-        <v>197.1441955566407</v>
+        <v>197.1441802978516</v>
       </c>
       <c r="E13" t="n">
         <v>66831600</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>195.1340347571985</v>
+        <v>195.1340194828308</v>
       </c>
       <c r="B15" t="n">
-        <v>195.6714106975417</v>
+        <v>195.6713953811102</v>
       </c>
       <c r="C15" t="n">
-        <v>193.4423254921639</v>
+        <v>193.4423103502168</v>
       </c>
       <c r="D15" t="n">
-        <v>194.9350128173828</v>
+        <v>194.9349975585938</v>
       </c>
       <c r="E15" t="n">
         <v>55751900</v>
@@ -794,16 +794,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>195.2036927535996</v>
+        <v>195.2037079519548</v>
       </c>
       <c r="B16" t="n">
-        <v>195.9898346980568</v>
+        <v>195.9898499576203</v>
       </c>
       <c r="C16" t="n">
-        <v>194.9350047944863</v>
+        <v>194.9350199719217</v>
       </c>
       <c r="D16" t="n">
-        <v>195.9798889160156</v>
+        <v>195.9799041748047</v>
       </c>
       <c r="E16" t="n">
         <v>40714100</v>
@@ -840,16 +840,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>195.143986627033</v>
+        <v>195.1439712569449</v>
       </c>
       <c r="B18" t="n">
-        <v>196.1192047157488</v>
+        <v>196.1191892688499</v>
       </c>
       <c r="C18" t="n">
-        <v>192.55665597684</v>
+        <v>192.5566408105374</v>
       </c>
       <c r="D18" t="n">
-        <v>193.7308959960937</v>
+        <v>193.7308807373047</v>
       </c>
       <c r="E18" t="n">
         <v>46482500</v>
@@ -866,7 +866,7 @@
         <v>194.2284575796248</v>
       </c>
       <c r="B19" t="n">
-        <v>194.4573472239395</v>
+        <v>194.4573472239394</v>
       </c>
       <c r="C19" t="n">
         <v>192.0292402023755</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>186.2376030973938</v>
+        <v>186.2376184802978</v>
       </c>
       <c r="B24" t="n">
-        <v>187.5213226123102</v>
+        <v>187.5213381012472</v>
       </c>
       <c r="C24" t="n">
-        <v>182.9935016661129</v>
+        <v>182.9935167810597</v>
       </c>
       <c r="D24" t="n">
-        <v>184.7349700927734</v>
+        <v>184.7349853515625</v>
       </c>
       <c r="E24" t="n">
         <v>82488700</v>
@@ -1001,16 +1001,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>183.3218930760244</v>
+        <v>183.3219083323291</v>
       </c>
       <c r="B25" t="n">
-        <v>184.973803899141</v>
+        <v>184.97381929292</v>
       </c>
       <c r="C25" t="n">
-        <v>182.5357359755921</v>
+        <v>182.5357511664717</v>
       </c>
       <c r="D25" t="n">
-        <v>183.3517456054688</v>
+        <v>183.3517608642578</v>
       </c>
       <c r="E25" t="n">
         <v>58414500</v>
@@ -1024,16 +1024,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>181.2619830847913</v>
+        <v>181.261998363711</v>
       </c>
       <c r="B26" t="n">
-        <v>182.1974028615862</v>
+        <v>182.1974182193542</v>
       </c>
       <c r="C26" t="n">
-        <v>179.9981854738791</v>
+        <v>179.9982006462708</v>
       </c>
       <c r="D26" t="n">
-        <v>181.0231628417969</v>
+        <v>181.0231781005859</v>
       </c>
       <c r="E26" t="n">
         <v>71983600</v>
@@ -1047,16 +1047,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>181.1027863374306</v>
+        <v>181.1027710104231</v>
       </c>
       <c r="B27" t="n">
-        <v>181.8690215790161</v>
+        <v>181.8690061871609</v>
       </c>
       <c r="C27" t="n">
-        <v>179.2916517277176</v>
+        <v>179.2916365539892</v>
       </c>
       <c r="D27" t="n">
-        <v>180.2967224121093</v>
+        <v>180.2967071533203</v>
       </c>
       <c r="E27" t="n">
         <v>62303300</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>183.451291839185</v>
+        <v>183.4512767311887</v>
       </c>
       <c r="B30" t="n">
-        <v>185.4912858528738</v>
+        <v>185.4912705768754</v>
       </c>
       <c r="C30" t="n">
-        <v>183.0233802119202</v>
+        <v>183.0233651391643</v>
       </c>
       <c r="D30" t="n">
-        <v>185.2823181152344</v>
+        <v>185.2823028564453</v>
       </c>
       <c r="E30" t="n">
         <v>46792900</v>
@@ -1139,16 +1139,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>185.6305767211096</v>
+        <v>185.630561384214</v>
       </c>
       <c r="B31" t="n">
-        <v>186.1381000959022</v>
+        <v>186.1380847170747</v>
       </c>
       <c r="C31" t="n">
-        <v>182.7248140769861</v>
+        <v>182.7247989801661</v>
       </c>
       <c r="D31" t="n">
-        <v>184.6852111816407</v>
+        <v>184.6851959228516</v>
       </c>
       <c r="E31" t="n">
         <v>49128400</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>185.1529277118819</v>
+        <v>185.1529124416028</v>
       </c>
       <c r="B32" t="n">
-        <v>185.8296205077815</v>
+        <v>185.829605181693</v>
       </c>
       <c r="C32" t="n">
-        <v>184.2871739488164</v>
+        <v>184.2871587499394</v>
       </c>
       <c r="D32" t="n">
-        <v>185.0136108398437</v>
+        <v>185.0135955810547</v>
       </c>
       <c r="E32" t="n">
         <v>40444700</v>
@@ -1208,16 +1208,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>180.3862988523529</v>
+        <v>180.3862837113365</v>
       </c>
       <c r="B34" t="n">
-        <v>182.0381946826344</v>
+        <v>182.0381794029634</v>
       </c>
       <c r="C34" t="n">
-        <v>179.4210264633155</v>
+        <v>179.4210114033208</v>
       </c>
       <c r="D34" t="n">
-        <v>181.7894134521484</v>
+        <v>181.7893981933594</v>
       </c>
       <c r="E34" t="n">
         <v>47317400</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>185.182777845328</v>
+        <v>185.1827928986489</v>
       </c>
       <c r="B35" t="n">
-        <v>188.2179116444371</v>
+        <v>188.217926944481</v>
       </c>
       <c r="C35" t="n">
-        <v>184.9240508532924</v>
+        <v>184.9240658855817</v>
       </c>
       <c r="D35" t="n">
-        <v>187.7104034423828</v>
+        <v>187.7104187011719</v>
       </c>
       <c r="E35" t="n">
         <v>78005800</v>
@@ -1257,10 +1257,10 @@
         <v>188.4069897270921</v>
       </c>
       <c r="B36" t="n">
-        <v>191.0142119758377</v>
+        <v>191.0142119758378</v>
       </c>
       <c r="C36" t="n">
-        <v>187.8994815198294</v>
+        <v>187.8994815198295</v>
       </c>
       <c r="D36" t="n">
         <v>190.6261138916016</v>
@@ -1309,7 +1309,7 @@
         <v>192.8850451968675</v>
       </c>
       <c r="D38" t="n">
-        <v>194.2284545898437</v>
+        <v>194.2284545898438</v>
       </c>
       <c r="E38" t="n">
         <v>42355600</v>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>194.4673013936245</v>
+        <v>194.4672860626603</v>
       </c>
       <c r="B39" t="n">
-        <v>195.4226279554644</v>
+        <v>195.4226125491864</v>
       </c>
       <c r="C39" t="n">
-        <v>193.3925647057047</v>
+        <v>193.3925494594681</v>
       </c>
       <c r="D39" t="n">
-        <v>193.5517883300781</v>
+        <v>193.5517730712891</v>
       </c>
       <c r="E39" t="n">
         <v>53631300</v>
@@ -1415,16 +1415,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>190.0091625136337</v>
+        <v>190.0091470195191</v>
       </c>
       <c r="B43" t="n">
-        <v>190.8649705876085</v>
+        <v>190.8649550237078</v>
       </c>
       <c r="C43" t="n">
-        <v>186.5560776836521</v>
+        <v>186.5560624711159</v>
       </c>
       <c r="D43" t="n">
-        <v>187.123291015625</v>
+        <v>187.1232757568359</v>
       </c>
       <c r="E43" t="n">
         <v>55859400</v>
@@ -1487,7 +1487,7 @@
         <v>178.9831513103476</v>
       </c>
       <c r="B46" t="n">
-        <v>186.4167349544957</v>
+        <v>186.4167349544958</v>
       </c>
       <c r="C46" t="n">
         <v>178.3761245608121</v>
@@ -1507,16 +1507,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>187.232755111872</v>
+        <v>187.2327398148707</v>
       </c>
       <c r="B47" t="n">
-        <v>188.3273986414084</v>
+        <v>188.3273832549743</v>
       </c>
       <c r="C47" t="n">
-        <v>184.9340188842473</v>
+        <v>184.9340037750539</v>
       </c>
       <c r="D47" t="n">
-        <v>186.7650451660156</v>
+        <v>186.7650299072266</v>
       </c>
       <c r="E47" t="n">
         <v>69668800</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>189.710602105516</v>
+        <v>189.7106174633929</v>
       </c>
       <c r="B49" t="n">
-        <v>190.118606941087</v>
+        <v>190.1186223319937</v>
       </c>
       <c r="C49" t="n">
-        <v>187.6904998608304</v>
+        <v>187.6905150551716</v>
       </c>
       <c r="D49" t="n">
-        <v>188.4866027832031</v>
+        <v>188.4866180419922</v>
       </c>
       <c r="E49" t="n">
         <v>53439000</v>
@@ -1599,16 +1599,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>187.9698525753249</v>
+        <v>187.9698373326966</v>
       </c>
       <c r="B51" t="n">
-        <v>189.3050330175534</v>
+        <v>189.3050176666542</v>
       </c>
       <c r="C51" t="n">
-        <v>187.3222021069975</v>
+        <v>187.3221869168876</v>
       </c>
       <c r="D51" t="n">
-        <v>188.1691436767578</v>
+        <v>188.1691284179688</v>
       </c>
       <c r="E51" t="n">
         <v>45155200</v>
@@ -1677,7 +1677,7 @@
         <v>181.7822423881113</v>
       </c>
       <c r="D54" t="n">
-        <v>183.486068725586</v>
+        <v>183.4860687255859</v>
       </c>
       <c r="E54" t="n">
         <v>54630500</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>182.888248374629</v>
+        <v>182.8882483746291</v>
       </c>
       <c r="B55" t="n">
         <v>183.8248618157533</v>
@@ -1717,7 +1717,7 @@
         <v>182.7586933017402</v>
       </c>
       <c r="B56" t="n">
-        <v>184.1835454669468</v>
+        <v>184.1835454669467</v>
       </c>
       <c r="C56" t="n">
         <v>181.0150027746939</v>
@@ -1740,7 +1740,7 @@
         <v>181.134577279735</v>
       </c>
       <c r="B57" t="n">
-        <v>181.7722692495059</v>
+        <v>181.7722692495058</v>
       </c>
       <c r="C57" t="n">
         <v>179.3510375405212</v>
@@ -1783,16 +1783,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>182.8184858601931</v>
+        <v>182.8185010453242</v>
       </c>
       <c r="B59" t="n">
-        <v>184.2931608867761</v>
+        <v>184.2931761943955</v>
       </c>
       <c r="C59" t="n">
-        <v>181.8021742653834</v>
+        <v>181.8021893660984</v>
       </c>
       <c r="D59" t="n">
-        <v>183.7052764892578</v>
+        <v>183.7052917480469</v>
       </c>
       <c r="E59" t="n">
         <v>52292200</v>
@@ -1829,16 +1829,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>181.5829745492965</v>
+        <v>181.5829591995408</v>
       </c>
       <c r="B61" t="n">
-        <v>182.1010888435755</v>
+        <v>182.101073450022</v>
       </c>
       <c r="C61" t="n">
-        <v>179.9986954306054</v>
+        <v>179.9986802147735</v>
       </c>
       <c r="D61" t="n">
-        <v>180.5068664550781</v>
+        <v>180.5068511962891</v>
       </c>
       <c r="E61" t="n">
         <v>40867400</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>181.8519814326113</v>
+        <v>181.8519967830773</v>
       </c>
       <c r="B63" t="n">
-        <v>182.4597827750379</v>
+        <v>182.4597981768095</v>
       </c>
       <c r="C63" t="n">
-        <v>179.4805725128575</v>
+        <v>179.4805876631484</v>
       </c>
       <c r="D63" t="n">
-        <v>180.7659149169922</v>
+        <v>180.7659301757812</v>
       </c>
       <c r="E63" t="n">
         <v>48953900</v>
@@ -1898,16 +1898,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>180.6164570963822</v>
+        <v>180.6164723990696</v>
       </c>
       <c r="B64" t="n">
-        <v>181.9117731436531</v>
+        <v>181.9117885560859</v>
       </c>
       <c r="C64" t="n">
-        <v>178.8827249835327</v>
+        <v>178.8827401393301</v>
       </c>
       <c r="D64" t="n">
-        <v>180.0983276367188</v>
+        <v>180.0983428955078</v>
       </c>
       <c r="E64" t="n">
         <v>136682600</v>
@@ -1921,16 +1921,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>178.902679295223</v>
+        <v>178.9026640457765</v>
       </c>
       <c r="B65" t="n">
-        <v>179.8791418871177</v>
+        <v>179.8791265544387</v>
       </c>
       <c r="C65" t="n">
-        <v>176.7405045255677</v>
+        <v>176.7404894604223</v>
       </c>
       <c r="D65" t="n">
-        <v>179.0122833251953</v>
+        <v>179.0122680664062</v>
       </c>
       <c r="E65" t="n">
         <v>73488000</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>175.5149064126927</v>
+        <v>175.5149217629811</v>
       </c>
       <c r="B66" t="n">
-        <v>176.2622023784642</v>
+        <v>176.2622177941101</v>
       </c>
       <c r="C66" t="n">
-        <v>173.1634144989139</v>
+        <v>173.1634296435442</v>
       </c>
       <c r="D66" t="n">
-        <v>174.4687042236328</v>
+        <v>174.4687194824219</v>
       </c>
       <c r="E66" t="n">
         <v>81510100</v>
@@ -1967,16 +1967,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>170.1443601154688</v>
+        <v>170.1443447992754</v>
       </c>
       <c r="B67" t="n">
-        <v>171.4197441647657</v>
+        <v>171.4197287337638</v>
       </c>
       <c r="C67" t="n">
-        <v>169.0084707214457</v>
+        <v>169.0084555075038</v>
       </c>
       <c r="D67" t="n">
-        <v>169.5066680908203</v>
+        <v>169.5066528320312</v>
       </c>
       <c r="E67" t="n">
         <v>95132400</v>
@@ -2013,16 +2013,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>168.5401544147667</v>
+        <v>168.5401391424349</v>
       </c>
       <c r="B69" t="n">
-        <v>170.1144598371159</v>
+        <v>170.1144444221278</v>
       </c>
       <c r="C69" t="n">
-        <v>167.8825454793763</v>
+        <v>167.882530266634</v>
       </c>
       <c r="D69" t="n">
-        <v>168.3907012939453</v>
+        <v>168.3906860351562</v>
       </c>
       <c r="E69" t="n">
         <v>71765100</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>168.3906825665046</v>
+        <v>168.3906976706774</v>
       </c>
       <c r="B70" t="n">
-        <v>173.073734011327</v>
+        <v>173.0737495355564</v>
       </c>
       <c r="C70" t="n">
-        <v>168.3309013248246</v>
+        <v>168.3309164236351</v>
       </c>
       <c r="D70" t="n">
-        <v>170.1144409179688</v>
+        <v>170.1144561767578</v>
       </c>
       <c r="E70" t="n">
         <v>76114600</v>
@@ -2065,7 +2065,7 @@
         <v>173.7513102102275</v>
       </c>
       <c r="C71" t="n">
-        <v>171.4297087673898</v>
+        <v>171.4297087673899</v>
       </c>
       <c r="D71" t="n">
         <v>172.1271820068359</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>172.5257248372295</v>
+        <v>172.5257248372296</v>
       </c>
       <c r="B72" t="n">
         <v>173.4025569805694</v>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>170.5528808562992</v>
+        <v>170.552865725683</v>
       </c>
       <c r="B75" t="n">
-        <v>171.9976501464844</v>
+        <v>171.9976348876953</v>
       </c>
       <c r="C75" t="n">
-        <v>169.6760486454164</v>
+        <v>169.6760335925884</v>
       </c>
       <c r="D75" t="n">
-        <v>171.9976501464844</v>
+        <v>171.9976348876953</v>
       </c>
       <c r="E75" t="n">
         <v>121664700</v>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>174.9370098250161</v>
+        <v>174.9370252463014</v>
       </c>
       <c r="B76" t="n">
-        <v>177.0692936926196</v>
+        <v>177.0693093018729</v>
       </c>
       <c r="C76" t="n">
-        <v>172.894397823842</v>
+        <v>172.8944130650642</v>
       </c>
       <c r="D76" t="n">
-        <v>173.0936737060547</v>
+        <v>173.0936889648438</v>
       </c>
       <c r="E76" t="n">
         <v>75604200</v>
@@ -2203,7 +2203,7 @@
         <v>175.9732631292534</v>
       </c>
       <c r="C77" t="n">
-        <v>172.4061683891921</v>
+        <v>172.4061683891922</v>
       </c>
       <c r="D77" t="n">
         <v>175.4451751708984</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>175.0864869131195</v>
+        <v>175.0864719062663</v>
       </c>
       <c r="B78" t="n">
-        <v>178.0258483886719</v>
+        <v>178.0258331298828</v>
       </c>
       <c r="C78" t="n">
-        <v>174.4587533545976</v>
+        <v>174.4587384015481</v>
       </c>
       <c r="D78" t="n">
-        <v>178.0258483886719</v>
+        <v>178.0258331298828</v>
       </c>
       <c r="E78" t="n">
         <v>53423100</v>
@@ -2243,16 +2243,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>176.4116811790422</v>
+        <v>176.4116654145051</v>
       </c>
       <c r="B79" t="n">
-        <v>176.8500972709565</v>
+        <v>176.8500814672416</v>
       </c>
       <c r="C79" t="n">
-        <v>170.2240635250273</v>
+        <v>170.2240483134294</v>
       </c>
       <c r="D79" t="n">
-        <v>170.7521514892578</v>
+        <v>170.7521362304688</v>
       </c>
       <c r="E79" t="n">
         <v>106181300</v>
@@ -2312,16 +2312,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>169.3871075780101</v>
+        <v>169.3870922931475</v>
       </c>
       <c r="B82" t="n">
-        <v>170.8019862992085</v>
+        <v>170.8019708866724</v>
       </c>
       <c r="C82" t="n">
-        <v>168.9686236072707</v>
+        <v>168.9686083601705</v>
       </c>
       <c r="D82" t="n">
-        <v>169.0981597900391</v>
+        <v>169.09814453125</v>
       </c>
       <c r="E82" t="n">
         <v>57388400</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>169.7956118134809</v>
+        <v>169.7956268169449</v>
       </c>
       <c r="B83" t="n">
-        <v>172.97411310205</v>
+        <v>172.9741283863723</v>
       </c>
       <c r="C83" t="n">
-        <v>169.4966903850175</v>
+        <v>169.4967053620682</v>
       </c>
       <c r="D83" t="n">
-        <v>172.6851501464844</v>
+        <v>172.6851654052734</v>
       </c>
       <c r="E83" t="n">
         <v>60273300</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>170.5728137058907</v>
+        <v>170.5727983430009</v>
       </c>
       <c r="B85" t="n">
-        <v>170.6325949561908</v>
+        <v>170.6325795879167</v>
       </c>
       <c r="C85" t="n">
-        <v>168.8689720534547</v>
+        <v>168.8689568440239</v>
       </c>
       <c r="D85" t="n">
-        <v>169.4169921875</v>
+        <v>169.4169769287109</v>
       </c>
       <c r="E85" t="n">
         <v>46240500</v>
@@ -2404,16 +2404,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>168.4704023866532</v>
+        <v>168.4704176671326</v>
       </c>
       <c r="B86" t="n">
-        <v>168.7294595117456</v>
+        <v>168.7294748157218</v>
       </c>
       <c r="C86" t="n">
-        <v>167.6234608871287</v>
+        <v>167.6234760907895</v>
       </c>
       <c r="D86" t="n">
-        <v>168.2312622070312</v>
+        <v>168.2312774658203</v>
       </c>
       <c r="E86" t="n">
         <v>49329500</v>
@@ -2450,16 +2450,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>169.6760510041407</v>
+        <v>169.676035612487</v>
       </c>
       <c r="B88" t="n">
-        <v>171.3001792708461</v>
+        <v>171.3001637318645</v>
       </c>
       <c r="C88" t="n">
-        <v>168.2113647460938</v>
+        <v>168.2113494873047</v>
       </c>
       <c r="D88" t="n">
-        <v>168.2113647460938</v>
+        <v>168.2113494873047</v>
       </c>
       <c r="E88" t="n">
         <v>53704400</v>
@@ -2473,16 +2473,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>168.9785558847103</v>
+        <v>168.9785711443986</v>
       </c>
       <c r="B89" t="n">
-        <v>169.7756746022557</v>
+        <v>169.7756899339283</v>
       </c>
       <c r="C89" t="n">
-        <v>168.3408639514289</v>
+        <v>168.3408791535302</v>
       </c>
       <c r="D89" t="n">
-        <v>168.9685974121094</v>
+        <v>168.9686126708984</v>
       </c>
       <c r="E89" t="n">
         <v>42055200</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>168.0917693179307</v>
+        <v>168.0917844894855</v>
       </c>
       <c r="B91" t="n">
-        <v>169.46679875845</v>
+        <v>169.4668140541115</v>
       </c>
       <c r="C91" t="n">
-        <v>167.7430403232692</v>
+        <v>167.7430554633485</v>
       </c>
       <c r="D91" t="n">
-        <v>169.0582733154297</v>
+        <v>169.0582885742188</v>
       </c>
       <c r="E91" t="n">
         <v>42451200</v>
@@ -2542,16 +2542,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>168.1914214133269</v>
+        <v>168.1914367648804</v>
       </c>
       <c r="B92" t="n">
-        <v>168.480369174661</v>
+        <v>168.480384552588</v>
       </c>
       <c r="C92" t="n">
-        <v>166.5075120076798</v>
+        <v>166.5075272055357</v>
       </c>
       <c r="D92" t="n">
-        <v>167.1750946044922</v>
+        <v>167.1751098632812</v>
       </c>
       <c r="E92" t="n">
         <v>49709300</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>171.1307833718662</v>
+        <v>171.1307988441589</v>
       </c>
       <c r="B96" t="n">
-        <v>173.1335311711557</v>
+        <v>173.1335468245211</v>
       </c>
       <c r="C96" t="n">
-        <v>167.6633342016507</v>
+        <v>167.6633493604441</v>
       </c>
       <c r="D96" t="n">
-        <v>168.7693328857422</v>
+        <v>168.7693481445312</v>
       </c>
       <c r="E96" t="n">
         <v>73711200</v>
@@ -2680,16 +2680,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>167.4241955985169</v>
+        <v>167.4241802492927</v>
       </c>
       <c r="B98" t="n">
-        <v>168.0319969568735</v>
+        <v>168.0319815519269</v>
       </c>
       <c r="C98" t="n">
-        <v>165.9495357403214</v>
+        <v>165.949520526292</v>
       </c>
       <c r="D98" t="n">
-        <v>166.4377593994141</v>
+        <v>166.437744140625</v>
       </c>
       <c r="E98" t="n">
         <v>43122900</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>164.9232423149658</v>
+        <v>164.9232575443127</v>
       </c>
       <c r="B100" t="n">
-        <v>166.6569592291892</v>
+        <v>166.6569746186311</v>
       </c>
       <c r="C100" t="n">
-        <v>164.1759463474487</v>
+        <v>164.1759615077887</v>
       </c>
       <c r="D100" t="n">
-        <v>165.2420806884766</v>
+        <v>165.2420959472656</v>
       </c>
       <c r="E100" t="n">
         <v>48116400</v>
@@ -2749,16 +2749,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>164.7538488645961</v>
+        <v>164.7538639816779</v>
       </c>
       <c r="B101" t="n">
-        <v>166.4477165993552</v>
+        <v>166.4477318718588</v>
       </c>
       <c r="C101" t="n">
-        <v>164.3253912918856</v>
+        <v>164.325406369654</v>
       </c>
       <c r="D101" t="n">
-        <v>166.2982482910156</v>
+        <v>166.2982635498047</v>
       </c>
       <c r="E101" t="n">
         <v>49537800</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>165.9395595750725</v>
+        <v>165.9395746099711</v>
       </c>
       <c r="B102" t="n">
-        <v>168.6896185602667</v>
+        <v>168.6896338443335</v>
       </c>
       <c r="C102" t="n">
-        <v>165.610762717411</v>
+        <v>165.6107777225191</v>
       </c>
       <c r="D102" t="n">
-        <v>168.4106292724609</v>
+        <v>168.41064453125</v>
       </c>
       <c r="E102" t="n">
         <v>48251800</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>171.8880289921212</v>
+        <v>171.8880442050533</v>
       </c>
       <c r="B108" t="n">
-        <v>172.7947517376801</v>
+        <v>172.7947670308616</v>
       </c>
       <c r="C108" t="n">
-        <v>170.2738745863648</v>
+        <v>170.2738896564363</v>
       </c>
       <c r="D108" t="n">
-        <v>172.4061584472656</v>
+        <v>172.4061737060547</v>
       </c>
       <c r="E108" t="n">
         <v>94214900</v>
@@ -2979,16 +2979,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>182.7885879857048</v>
+        <v>182.7886033323325</v>
       </c>
       <c r="B111" t="n">
-        <v>184.2333571280425</v>
+        <v>184.2333725959706</v>
       </c>
       <c r="C111" t="n">
-        <v>180.6662778070391</v>
+        <v>180.6662929754811</v>
       </c>
       <c r="D111" t="n">
-        <v>181.7423706054688</v>
+        <v>181.7423858642578</v>
       </c>
       <c r="E111" t="n">
         <v>77305800</v>
@@ -3002,13 +3002,13 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>182.1907655172808</v>
+        <v>182.1907655172807</v>
       </c>
       <c r="B112" t="n">
         <v>182.4099735537954</v>
       </c>
       <c r="C112" t="n">
-        <v>180.7958039027536</v>
+        <v>180.7958039027535</v>
       </c>
       <c r="D112" t="n">
         <v>182.0811614990234</v>
@@ -3025,16 +3025,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>181.9018085161573</v>
+        <v>181.9018236087747</v>
       </c>
       <c r="B113" t="n">
-        <v>183.9942434045937</v>
+        <v>183.9942586708229</v>
       </c>
       <c r="C113" t="n">
-        <v>181.4534339554284</v>
+        <v>181.4534490108435</v>
       </c>
       <c r="D113" t="n">
-        <v>183.9045715332031</v>
+        <v>183.9045867919922</v>
       </c>
       <c r="E113" t="n">
         <v>48983000</v>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>184.4832417440643</v>
+        <v>184.483257157066</v>
       </c>
       <c r="B114" t="n">
-        <v>184.6728159327445</v>
+        <v>184.6728313615845</v>
       </c>
       <c r="C114" t="n">
-        <v>181.719496099358</v>
+        <v>181.7195112814573</v>
       </c>
       <c r="D114" t="n">
-        <v>182.6374206542969</v>
+        <v>182.6374359130859</v>
       </c>
       <c r="E114" t="n">
         <v>50759500</v>
@@ -3071,16 +3071,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>185.022050078909</v>
+        <v>185.0220348889267</v>
       </c>
       <c r="B115" t="n">
-        <v>186.6783123559709</v>
+        <v>186.6782970300124</v>
       </c>
       <c r="C115" t="n">
-        <v>184.2038909211802</v>
+        <v>184.2038757983674</v>
       </c>
       <c r="D115" t="n">
-        <v>185.8601531982422</v>
+        <v>185.8601379394531</v>
       </c>
       <c r="E115" t="n">
         <v>72044800</v>
@@ -3103,7 +3103,7 @@
         <v>185.8701231015191</v>
       </c>
       <c r="D116" t="n">
-        <v>187.007553100586</v>
+        <v>187.0075531005859</v>
       </c>
       <c r="E116" t="n">
         <v>52393600</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>190.0407095773474</v>
+        <v>190.0407095773475</v>
       </c>
       <c r="B118" t="n">
         <v>190.6692945209059</v>
@@ -3149,7 +3149,7 @@
         <v>189.2325376352855</v>
       </c>
       <c r="D118" t="n">
-        <v>189.412124633789</v>
+        <v>189.4121246337891</v>
       </c>
       <c r="E118" t="n">
         <v>52845200</v>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>189.082873144053</v>
+        <v>189.0828579141952</v>
       </c>
       <c r="B119" t="n">
-        <v>190.3799462232965</v>
+        <v>190.3799308889647</v>
       </c>
       <c r="C119" t="n">
-        <v>188.7536150776328</v>
+        <v>188.7535998742954</v>
       </c>
       <c r="D119" t="n">
-        <v>189.4420623779297</v>
+        <v>189.4420471191406</v>
       </c>
       <c r="E119" t="n">
         <v>41282900</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>188.9032833588642</v>
+        <v>188.9032833588643</v>
       </c>
       <c r="B120" t="n">
         <v>191.4874422738975</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>190.6593035265409</v>
+        <v>190.659303526541</v>
       </c>
       <c r="B121" t="n">
         <v>192.295606563888</v>
@@ -3232,16 +3232,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>191.8366644559029</v>
+        <v>191.8366490876078</v>
       </c>
       <c r="B122" t="n">
-        <v>192.3854279059742</v>
+        <v>192.3854124937169</v>
       </c>
       <c r="C122" t="n">
-        <v>189.841172073388</v>
+        <v>189.8411568649545</v>
       </c>
       <c r="D122" t="n">
-        <v>190.469741821289</v>
+        <v>190.4697265625</v>
       </c>
       <c r="E122" t="n">
         <v>34648500</v>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>190.5495512596286</v>
+        <v>190.5495512596287</v>
       </c>
       <c r="B123" t="n">
         <v>190.5695104450197</v>
       </c>
       <c r="C123" t="n">
-        <v>186.2093647375352</v>
+        <v>186.2093647375351</v>
       </c>
       <c r="D123" t="n">
         <v>186.4588012695312</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>191.0783612947484</v>
+        <v>191.0783459138836</v>
       </c>
       <c r="B125" t="n">
-        <v>192.5650085513949</v>
+        <v>192.5649930508622</v>
       </c>
       <c r="C125" t="n">
-        <v>188.6738046237944</v>
+        <v>188.6737894364844</v>
       </c>
       <c r="D125" t="n">
-        <v>189.5617980957031</v>
+        <v>189.5617828369141</v>
       </c>
       <c r="E125" t="n">
         <v>52280100</v>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>191.0085242263275</v>
+        <v>191.0085090318276</v>
       </c>
       <c r="B128" t="n">
-        <v>192.1359822407549</v>
+        <v>192.135966956567</v>
       </c>
       <c r="C128" t="n">
-        <v>189.4819738440947</v>
+        <v>189.48195877103</v>
       </c>
       <c r="D128" t="n">
-        <v>191.8166961669922</v>
+        <v>191.8166809082031</v>
       </c>
       <c r="E128" t="n">
         <v>75158300</v>
@@ -3393,16 +3393,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>192.4652087074056</v>
+        <v>192.4652238773294</v>
       </c>
       <c r="B129" t="n">
-        <v>194.550509541431</v>
+        <v>194.5505248757163</v>
       </c>
       <c r="C129" t="n">
-        <v>192.0860755575436</v>
+        <v>192.0860906975846</v>
       </c>
       <c r="D129" t="n">
-        <v>193.5926666259766</v>
+        <v>193.5926818847656</v>
       </c>
       <c r="E129" t="n">
         <v>50080500</v>
@@ -3425,7 +3425,7 @@
         <v>192.5949246534636</v>
       </c>
       <c r="D130" t="n">
-        <v>193.9119567871093</v>
+        <v>193.9119567871094</v>
       </c>
       <c r="E130" t="n">
         <v>47471400</v>
@@ -3445,7 +3445,7 @@
         <v>196.456205118623</v>
       </c>
       <c r="C131" t="n">
-        <v>194.4307817111152</v>
+        <v>194.4307817111151</v>
       </c>
       <c r="D131" t="n">
         <v>195.4285278320312</v>
@@ -3462,16 +3462,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>195.2489359690783</v>
+        <v>195.2489513228038</v>
       </c>
       <c r="B132" t="n">
-        <v>196.0571078709634</v>
+        <v>196.0571232882409</v>
       </c>
       <c r="C132" t="n">
-        <v>193.7323576402732</v>
+        <v>193.73237287474</v>
       </c>
       <c r="D132" t="n">
-        <v>194.0416564941407</v>
+        <v>194.0416717529297</v>
       </c>
       <c r="E132" t="n">
         <v>41181800</v>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>194.2112863790452</v>
+        <v>194.2112712938544</v>
       </c>
       <c r="B133" t="n">
-        <v>196.4961336396354</v>
+        <v>196.4961183769711</v>
       </c>
       <c r="C133" t="n">
-        <v>193.7024413118754</v>
+        <v>193.7024262662087</v>
       </c>
       <c r="D133" t="n">
-        <v>196.4462432861328</v>
+        <v>196.4462280273438</v>
       </c>
       <c r="E133" t="n">
         <v>53103900</v>
@@ -3517,7 +3517,7 @@
         <v>191.7169079607164</v>
       </c>
       <c r="D134" t="n">
-        <v>192.6847229003907</v>
+        <v>192.6847229003906</v>
       </c>
       <c r="E134" t="n">
         <v>97262100</v>
@@ -3563,7 +3563,7 @@
         <v>206.4336754784377</v>
       </c>
       <c r="D136" t="n">
-        <v>212.5897827148437</v>
+        <v>212.5897827148438</v>
       </c>
       <c r="E136" t="n">
         <v>198134300</v>
@@ -3583,7 +3583,7 @@
         <v>216.2614784743462</v>
       </c>
       <c r="C137" t="n">
-        <v>211.123091880632</v>
+        <v>211.1230918806319</v>
       </c>
       <c r="D137" t="n">
         <v>213.7571411132812</v>
@@ -3603,13 +3603,13 @@
         <v>213.3680132089472</v>
       </c>
       <c r="B138" t="n">
-        <v>214.6850301666928</v>
+        <v>214.6850301666927</v>
       </c>
       <c r="C138" t="n">
         <v>210.8237575657328</v>
       </c>
       <c r="D138" t="n">
-        <v>212.0110778808593</v>
+        <v>212.0110778808594</v>
       </c>
       <c r="E138" t="n">
         <v>70122700</v>
@@ -3632,7 +3632,7 @@
         <v>212.2405616472853</v>
       </c>
       <c r="D139" t="n">
-        <v>216.181655883789</v>
+        <v>216.1816558837891</v>
       </c>
       <c r="E139" t="n">
         <v>93728300</v>
@@ -3649,7 +3649,7 @@
         <v>217.0995720380078</v>
       </c>
       <c r="B140" t="n">
-        <v>218.1372365162396</v>
+        <v>218.1372365162395</v>
       </c>
       <c r="C140" t="n">
         <v>212.5199210550432</v>
@@ -3669,16 +3669,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>213.4478340050977</v>
+        <v>213.4478184370285</v>
       </c>
       <c r="B141" t="n">
-        <v>213.7571481108783</v>
+        <v>213.757132520249</v>
       </c>
       <c r="C141" t="n">
-        <v>208.3792967838189</v>
+        <v>208.3792815854295</v>
       </c>
       <c r="D141" t="n">
-        <v>209.2074127197266</v>
+        <v>209.2073974609375</v>
       </c>
       <c r="E141" t="n">
         <v>86172500</v>
@@ -3695,10 +3695,10 @@
         <v>209.9158118709615</v>
       </c>
       <c r="B142" t="n">
-        <v>211.4124310958292</v>
+        <v>211.4124310958291</v>
       </c>
       <c r="C142" t="n">
-        <v>206.6432057172028</v>
+        <v>206.6432057172027</v>
       </c>
       <c r="D142" t="n">
         <v>207.0223541259766</v>
@@ -3715,16 +3715,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>207.2518163943841</v>
+        <v>207.2518316223831</v>
       </c>
       <c r="B143" t="n">
-        <v>212.2205875964993</v>
+        <v>212.2206031895828</v>
       </c>
       <c r="C143" t="n">
-        <v>206.1243584552299</v>
+        <v>206.1243736003879</v>
       </c>
       <c r="D143" t="n">
-        <v>207.6708679199219</v>
+        <v>207.6708831787109</v>
       </c>
       <c r="E143" t="n">
         <v>80727000</v>
@@ -3747,7 +3747,7 @@
         <v>208.1398154935311</v>
       </c>
       <c r="D144" t="n">
-        <v>208.5987854003907</v>
+        <v>208.5987854003906</v>
       </c>
       <c r="E144" t="n">
         <v>56713900</v>
@@ -3767,7 +3767,7 @@
         <v>214.3757352905112</v>
       </c>
       <c r="C145" t="n">
-        <v>210.1652453805921</v>
+        <v>210.1652453805922</v>
       </c>
       <c r="D145" t="n">
         <v>212.7693634033203</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>219.5041496260788</v>
+        <v>219.5041496260787</v>
       </c>
       <c r="B150" t="n">
         <v>221.0506591796875</v>
@@ -3922,13 +3922,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>226.5781681668552</v>
+        <v>226.5781681668551</v>
       </c>
       <c r="B152" t="n">
         <v>227.336464979842</v>
       </c>
       <c r="C152" t="n">
-        <v>222.746826628093</v>
+        <v>222.7468266280931</v>
       </c>
       <c r="D152" t="n">
         <v>227.3065338134766</v>
@@ -3968,16 +3968,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>228.7831814576418</v>
+        <v>228.7831964754135</v>
       </c>
       <c r="B154" t="n">
-        <v>232.5546604594905</v>
+        <v>232.5546757248293</v>
       </c>
       <c r="C154" t="n">
-        <v>228.7332911082677</v>
+        <v>228.7333061227644</v>
       </c>
       <c r="D154" t="n">
-        <v>232.4548797607422</v>
+        <v>232.4548950195312</v>
       </c>
       <c r="E154" t="n">
         <v>62627700</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>235.9470026383857</v>
+        <v>235.9470026383858</v>
       </c>
       <c r="B157" t="n">
         <v>236.6953122424788</v>
@@ -4060,16 +4060,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>234.4703432233226</v>
+        <v>234.4703279528375</v>
       </c>
       <c r="B158" t="n">
-        <v>235.7374850857013</v>
+        <v>235.7374697326903</v>
       </c>
       <c r="C158" t="n">
-        <v>231.8063628527769</v>
+        <v>231.8063477557903</v>
       </c>
       <c r="D158" t="n">
-        <v>234.290756225586</v>
+        <v>234.2907409667969</v>
       </c>
       <c r="E158" t="n">
         <v>43234300</v>
@@ -4106,16 +4106,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>229.7609704275717</v>
+        <v>229.7609861015571</v>
       </c>
       <c r="B160" t="n">
-        <v>229.9206134572446</v>
+        <v>229.9206291421206</v>
       </c>
       <c r="C160" t="n">
-        <v>221.7690296564846</v>
+        <v>221.7690447852705</v>
       </c>
       <c r="D160" t="n">
-        <v>223.6747131347656</v>
+        <v>223.6747283935547</v>
       </c>
       <c r="E160" t="n">
         <v>66034600</v>
@@ -4138,7 +4138,7 @@
         <v>222.7767508224716</v>
       </c>
       <c r="D161" t="n">
-        <v>223.804428100586</v>
+        <v>223.8044281005859</v>
       </c>
       <c r="E161" t="n">
         <v>49151500</v>
@@ -4161,7 +4161,7 @@
         <v>222.587181224328</v>
       </c>
       <c r="D162" t="n">
-        <v>223.4552307128907</v>
+        <v>223.4552307128906</v>
       </c>
       <c r="E162" t="n">
         <v>48201800</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>223.8642964731782</v>
+        <v>223.8642964731783</v>
       </c>
       <c r="B163" t="n">
         <v>226.4285113596948</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>223.4951246791964</v>
+        <v>223.4951403192113</v>
       </c>
       <c r="B164" t="n">
-        <v>224.2933245979301</v>
+        <v>224.2933402938024</v>
       </c>
       <c r="C164" t="n">
-        <v>216.64061389678</v>
+        <v>216.6406290571215</v>
       </c>
       <c r="D164" t="n">
-        <v>218.0474243164062</v>
+        <v>218.0474395751953</v>
       </c>
       <c r="E164" t="n">
         <v>61777600</v>
@@ -4247,7 +4247,7 @@
         <v>218.2070723817432</v>
       </c>
       <c r="B166" t="n">
-        <v>218.9953003385308</v>
+        <v>218.9953003385307</v>
       </c>
       <c r="C166" t="n">
         <v>215.5231328955533</v>
@@ -4296,7 +4296,7 @@
         <v>219.8334045947242</v>
       </c>
       <c r="C168" t="n">
-        <v>215.6328867279576</v>
+        <v>215.6328867279575</v>
       </c>
       <c r="D168" t="n">
         <v>218.3068542480469</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>220.9409108436626</v>
+        <v>220.9409108436627</v>
       </c>
       <c r="B169" t="n">
         <v>223.3155515626994</v>
@@ -4359,16 +4359,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>218.6560497534114</v>
+        <v>218.6560649629243</v>
       </c>
       <c r="B171" t="n">
-        <v>225.0915242198944</v>
+        <v>225.091539877053</v>
       </c>
       <c r="C171" t="n">
-        <v>217.2193081708616</v>
+        <v>217.2193232804361</v>
       </c>
       <c r="D171" t="n">
-        <v>219.3644561767578</v>
+        <v>219.3644714355469</v>
       </c>
       <c r="E171" t="n">
         <v>105568600</v>
@@ -4405,16 +4405,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>204.8372814903577</v>
+        <v>204.8372966070372</v>
       </c>
       <c r="B173" t="n">
-        <v>209.5167132292778</v>
+        <v>209.5167286912923</v>
       </c>
       <c r="C173" t="n">
-        <v>200.6168196653937</v>
+        <v>200.6168344706096</v>
       </c>
       <c r="D173" t="n">
-        <v>206.762924194336</v>
+        <v>206.762939453125</v>
       </c>
       <c r="E173" t="n">
         <v>69660500</v>
@@ -4431,13 +4431,13 @@
         <v>206.4336747442656</v>
       </c>
       <c r="B174" t="n">
-        <v>213.1584893542</v>
+        <v>213.1584893541999</v>
       </c>
       <c r="C174" t="n">
         <v>205.9248296826355</v>
       </c>
       <c r="D174" t="n">
-        <v>209.3471069335937</v>
+        <v>209.3471069335938</v>
       </c>
       <c r="E174" t="n">
         <v>63516400</v>
@@ -4500,7 +4500,7 @@
         <v>215.8325523661786</v>
       </c>
       <c r="B177" t="n">
-        <v>219.268759098088</v>
+        <v>219.2687590980881</v>
       </c>
       <c r="C177" t="n">
         <v>215.3630676638091</v>
@@ -4569,7 +4569,7 @@
         <v>224.3531744751542</v>
       </c>
       <c r="B180" t="n">
-        <v>225.1023502377712</v>
+        <v>225.1023502377711</v>
       </c>
       <c r="C180" t="n">
         <v>222.5151850202656</v>
@@ -4615,13 +4615,13 @@
         <v>225.4719428035102</v>
       </c>
       <c r="B182" t="n">
-        <v>225.7416503506828</v>
+        <v>225.7416503506827</v>
       </c>
       <c r="C182" t="n">
         <v>222.7948801042878</v>
       </c>
       <c r="D182" t="n">
-        <v>225.6417541503907</v>
+        <v>225.6417541503906</v>
       </c>
       <c r="E182" t="n">
         <v>40687800</v>
@@ -4687,7 +4687,7 @@
         <v>228.0890594184181</v>
       </c>
       <c r="C185" t="n">
-        <v>223.6539363698164</v>
+        <v>223.6539363698163</v>
       </c>
       <c r="D185" t="n">
         <v>224.2832489013672</v>
@@ -4736,7 +4736,7 @@
         <v>223.6439506914201</v>
       </c>
       <c r="D187" t="n">
-        <v>226.9303283691407</v>
+        <v>226.9303283691406</v>
       </c>
       <c r="E187" t="n">
         <v>30602200</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>228.2988234838242</v>
+        <v>228.2988234838243</v>
       </c>
       <c r="B192" t="n">
         <v>228.748325879288</v>
@@ -4943,7 +4943,7 @@
         <v>216.4718399652467</v>
       </c>
       <c r="D196" t="n">
-        <v>220.667221069336</v>
+        <v>220.6672210693359</v>
       </c>
       <c r="E196" t="n">
         <v>67180000</v>
@@ -4966,7 +4966,7 @@
         <v>216.4918127191051</v>
       </c>
       <c r="D197" t="n">
-        <v>219.8681030273437</v>
+        <v>219.8681030273438</v>
       </c>
       <c r="E197" t="n">
         <v>51591000</v>
@@ -5003,13 +5003,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>222.2554694678672</v>
+        <v>222.2554694678671</v>
       </c>
       <c r="B199" t="n">
         <v>223.3043185519621</v>
       </c>
       <c r="C199" t="n">
-        <v>219.5784221405584</v>
+        <v>219.5784221405583</v>
       </c>
       <c r="D199" t="n">
         <v>222.5251770019531</v>
@@ -5121,7 +5121,7 @@
         <v>224.7427436847832</v>
       </c>
       <c r="B204" t="n">
-        <v>229.5674373912188</v>
+        <v>229.5674373912187</v>
       </c>
       <c r="C204" t="n">
         <v>224.38313871157</v>
@@ -5242,7 +5242,7 @@
         <v>225.1622767883918</v>
       </c>
       <c r="D209" t="n">
-        <v>227.2699584960937</v>
+        <v>227.2699584960938</v>
       </c>
       <c r="E209" t="n">
         <v>36636700</v>
@@ -5259,7 +5259,7 @@
         <v>228.2089346919555</v>
       </c>
       <c r="B210" t="n">
-        <v>229.2677673388692</v>
+        <v>229.2677673388691</v>
       </c>
       <c r="C210" t="n">
         <v>227.0502058458153</v>
@@ -5334,7 +5334,7 @@
         <v>222.7749145485347</v>
       </c>
       <c r="D213" t="n">
-        <v>226.530776977539</v>
+        <v>226.5307769775391</v>
       </c>
       <c r="E213" t="n">
         <v>32880600</v>
@@ -5377,7 +5377,7 @@
         <v>227.7494288886953</v>
       </c>
       <c r="C215" t="n">
-        <v>223.8836868810572</v>
+        <v>223.8836868810571</v>
       </c>
       <c r="D215" t="n">
         <v>226.5507507324219</v>
@@ -5400,7 +5400,7 @@
         <v>225.4419693605541</v>
       </c>
       <c r="C216" t="n">
-        <v>221.0867603863948</v>
+        <v>221.0867603863947</v>
       </c>
       <c r="D216" t="n">
         <v>221.4463653564453</v>
@@ -5512,10 +5512,10 @@
         <v>228.4486581594469</v>
       </c>
       <c r="B221" t="n">
-        <v>231.4753270033113</v>
+        <v>231.4753270033114</v>
       </c>
       <c r="C221" t="n">
-        <v>228.3487772035622</v>
+        <v>228.3487772035623</v>
       </c>
       <c r="D221" t="n">
         <v>231.0458068847656</v>
@@ -5541,7 +5541,7 @@
         <v>232.1146178817108</v>
       </c>
       <c r="D222" t="n">
-        <v>233.593002319336</v>
+        <v>233.5930023193359</v>
       </c>
       <c r="E222" t="n">
         <v>64751400</v>
@@ -5587,7 +5587,7 @@
         <v>230.2666686365762</v>
       </c>
       <c r="D224" t="n">
-        <v>231.8948669433593</v>
+        <v>231.8948669433594</v>
       </c>
       <c r="E224" t="n">
         <v>32993800</v>
@@ -5699,7 +5699,7 @@
         <v>230.5663451327911</v>
       </c>
       <c r="C229" t="n">
-        <v>228.1589899707721</v>
+        <v>228.1589899707722</v>
       </c>
       <c r="D229" t="n">
         <v>230.3166198730469</v>
@@ -5748,7 +5748,7 @@
         <v>232.2944369244333</v>
       </c>
       <c r="D231" t="n">
-        <v>233.1434936523437</v>
+        <v>233.1434936523438</v>
       </c>
       <c r="E231" t="n">
         <v>36087100</v>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>229.0879510090405</v>
+        <v>229.0879510090406</v>
       </c>
       <c r="B234" t="n">
         <v>229.5774179847299</v>
@@ -5837,7 +5837,7 @@
         <v>225.102344663121</v>
       </c>
       <c r="C235" t="n">
-        <v>220.0279257942879</v>
+        <v>220.0279257942878</v>
       </c>
       <c r="D235" t="n">
         <v>222.6650238037109</v>
@@ -5932,7 +5932,7 @@
         <v>224.3232053948821</v>
       </c>
       <c r="D239" t="n">
-        <v>227.229995727539</v>
+        <v>227.2299957275391</v>
       </c>
       <c r="E239" t="n">
         <v>42137700</v>
@@ -5949,10 +5949,10 @@
         <v>227.1699981689453</v>
       </c>
       <c r="B240" t="n">
-        <v>228.6600036621093</v>
+        <v>228.6600036621094</v>
       </c>
       <c r="C240" t="n">
-        <v>226.4100036621093</v>
+        <v>226.4100036621094</v>
       </c>
       <c r="D240" t="n">
         <v>226.9600067138672</v>
@@ -5978,7 +5978,7 @@
         <v>221.5</v>
       </c>
       <c r="D241" t="n">
-        <v>224.229995727539</v>
+        <v>224.2299957275391</v>
       </c>
       <c r="E241" t="n">
         <v>42005600</v>
@@ -5995,13 +5995,13 @@
         <v>224.5500030517578</v>
       </c>
       <c r="B242" t="n">
-        <v>225.5899963378907</v>
+        <v>225.5899963378906</v>
       </c>
       <c r="C242" t="n">
         <v>223.3600006103516</v>
       </c>
       <c r="D242" t="n">
-        <v>224.229995727539</v>
+        <v>224.2299957275391</v>
       </c>
       <c r="E242" t="n">
         <v>40398300</v>
@@ -6015,13 +6015,13 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>224.009994506836</v>
+        <v>224.0099945068359</v>
       </c>
       <c r="B243" t="n">
         <v>226.6499938964844</v>
       </c>
       <c r="C243" t="n">
-        <v>222.759994506836</v>
+        <v>222.7599945068359</v>
       </c>
       <c r="D243" t="n">
         <v>225.1199951171875</v>
@@ -6107,13 +6107,13 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>226.979995727539</v>
+        <v>226.9799957275391</v>
       </c>
       <c r="B247" t="n">
-        <v>230.1600036621093</v>
+        <v>230.1600036621094</v>
       </c>
       <c r="C247" t="n">
-        <v>226.6600036621093</v>
+        <v>226.6600036621094</v>
       </c>
       <c r="D247" t="n">
         <v>228.2799987792969</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>228.0599975585937</v>
+        <v>228.0599975585938</v>
       </c>
       <c r="B248" t="n">
         <v>229.9299926757812</v>
@@ -6156,7 +6156,7 @@
         <v>228.8800048828125</v>
       </c>
       <c r="B249" t="n">
-        <v>230.1600036621093</v>
+        <v>230.1600036621094</v>
       </c>
       <c r="C249" t="n">
         <v>225.7100067138672</v>
@@ -6176,13 +6176,13 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>228.0599975585937</v>
+        <v>228.0599975585938</v>
       </c>
       <c r="B250" t="n">
         <v>230.7200012207031</v>
       </c>
       <c r="C250" t="n">
-        <v>228.0599975585937</v>
+        <v>228.0599975585938</v>
       </c>
       <c r="D250" t="n">
         <v>229.8699951171875</v>
@@ -6231,7 +6231,7 @@
         <v>233.3300018310547</v>
       </c>
       <c r="D252" t="n">
-        <v>235.0599975585937</v>
+        <v>235.0599975585938</v>
       </c>
       <c r="E252" t="n">
         <v>45986200</v>
@@ -6251,7 +6251,7 @@
         <v>235.6900024414062</v>
       </c>
       <c r="C253" t="n">
-        <v>233.8099975585937</v>
+        <v>233.8099975585938</v>
       </c>
       <c r="D253" t="n">
         <v>234.9299926757812</v>
